--- a/data/output/FV2404_FV2310/UTILMD/55149.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55149.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="709">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="709">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2348,6 +2348,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U566" totalsRowShown="0">
+  <autoFilter ref="A1:U566"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,7 +2667,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27846,5 +27879,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55149.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55149.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13505" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13387" uniqueCount="1266">
   <si>
     <t>#</t>
   </si>
@@ -18912,44 +18912,42 @@
       <c r="V298" s="11"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2" t="s">
+      <c r="C299" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K299" s="2"/>
-      <c r="L299" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M299" s="2" t="s">
+      <c r="K299" s="5"/>
+      <c r="L299" s="7"/>
+      <c r="M299" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N299" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2" t="s">
+      <c r="N299" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V299" s="2"/>
+      <c r="V299" s="5"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="2" t="s">
@@ -19083,9 +19081,7 @@
         <v>438</v>
       </c>
       <c r="K302" s="2"/>
-      <c r="L302" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L302" s="7"/>
       <c r="M302" s="2" t="s">
         <v>54</v>
       </c>
@@ -21726,46 +21722,44 @@
       <c r="V369" s="2"/>
     </row>
     <row r="370" spans="1:22">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="2"/>
-      <c r="J370" s="2" t="s">
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K370" s="2" t="s">
+      <c r="K370" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L370" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M370" s="2" t="s">
+      <c r="L370" s="7"/>
+      <c r="M370" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N370" s="2" t="s">
+      <c r="N370" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-      <c r="Q370" s="2"/>
-      <c r="R370" s="2"/>
-      <c r="S370" s="2"/>
-      <c r="T370" s="2"/>
-      <c r="U370" s="2" t="s">
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="V370" s="2" t="s">
+      <c r="V370" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -22036,44 +22030,42 @@
       </c>
     </row>
     <row r="376" spans="1:22">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-      <c r="I376" s="2"/>
-      <c r="J376" s="2" t="s">
+      <c r="C376" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M376" s="2" t="s">
+      <c r="K376" s="5"/>
+      <c r="L376" s="7"/>
+      <c r="M376" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N376" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-      <c r="Q376" s="2"/>
-      <c r="R376" s="2"/>
-      <c r="S376" s="2"/>
-      <c r="T376" s="2"/>
-      <c r="U376" s="2" t="s">
+      <c r="N376" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O376" s="5"/>
+      <c r="P376" s="5"/>
+      <c r="Q376" s="5"/>
+      <c r="R376" s="5"/>
+      <c r="S376" s="5"/>
+      <c r="T376" s="5"/>
+      <c r="U376" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V376" s="2"/>
+      <c r="V376" s="5"/>
     </row>
     <row r="377" spans="1:22">
       <c r="A377" s="2" t="s">
@@ -22311,9 +22303,7 @@
         <v>435</v>
       </c>
       <c r="K381" s="2"/>
-      <c r="L381" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L381" s="7"/>
       <c r="M381" s="2" t="s">
         <v>77</v>
       </c>
@@ -22367,9 +22357,7 @@
         <v>435</v>
       </c>
       <c r="K382" s="2"/>
-      <c r="L382" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L382" s="7"/>
       <c r="M382" s="2" t="s">
         <v>77</v>
       </c>
@@ -22423,9 +22411,7 @@
         <v>435</v>
       </c>
       <c r="K383" s="2"/>
-      <c r="L383" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L383" s="7"/>
       <c r="M383" s="2" t="s">
         <v>77</v>
       </c>
@@ -22452,46 +22438,44 @@
       <c r="V383" s="2"/>
     </row>
     <row r="384" spans="1:22">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-      <c r="H384" s="2"/>
-      <c r="I384" s="2"/>
-      <c r="J384" s="2" t="s">
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K384" s="2" t="s">
+      <c r="K384" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L384" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M384" s="2" t="s">
+      <c r="L384" s="7"/>
+      <c r="M384" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N384" s="2" t="s">
+      <c r="N384" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O384" s="2"/>
-      <c r="P384" s="2"/>
-      <c r="Q384" s="2"/>
-      <c r="R384" s="2"/>
-      <c r="S384" s="2"/>
-      <c r="T384" s="2"/>
-      <c r="U384" s="2" t="s">
+      <c r="O384" s="5"/>
+      <c r="P384" s="5"/>
+      <c r="Q384" s="5"/>
+      <c r="R384" s="5"/>
+      <c r="S384" s="5"/>
+      <c r="T384" s="5"/>
+      <c r="U384" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="V384" s="2" t="s">
+      <c r="V384" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -22924,44 +22908,42 @@
       <c r="V392" s="2"/>
     </row>
     <row r="393" spans="1:22">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="2" t="s">
+      <c r="C393" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="5"/>
+      <c r="J393" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M393" s="2" t="s">
+      <c r="K393" s="5"/>
+      <c r="L393" s="7"/>
+      <c r="M393" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N393" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O393" s="2"/>
-      <c r="P393" s="2"/>
-      <c r="Q393" s="2"/>
-      <c r="R393" s="2"/>
-      <c r="S393" s="2"/>
-      <c r="T393" s="2"/>
-      <c r="U393" s="2" t="s">
+      <c r="N393" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O393" s="5"/>
+      <c r="P393" s="5"/>
+      <c r="Q393" s="5"/>
+      <c r="R393" s="5"/>
+      <c r="S393" s="5"/>
+      <c r="T393" s="5"/>
+      <c r="U393" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V393" s="2"/>
+      <c r="V393" s="5"/>
     </row>
     <row r="394" spans="1:22">
       <c r="A394" s="2" t="s">
@@ -23199,9 +23181,7 @@
         <v>435</v>
       </c>
       <c r="K398" s="2"/>
-      <c r="L398" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L398" s="7"/>
       <c r="M398" s="2" t="s">
         <v>81</v>
       </c>
@@ -23255,9 +23235,7 @@
         <v>435</v>
       </c>
       <c r="K399" s="2"/>
-      <c r="L399" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="2" t="s">
         <v>81</v>
       </c>
@@ -23311,9 +23289,7 @@
         <v>435</v>
       </c>
       <c r="K400" s="2"/>
-      <c r="L400" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="2" t="s">
         <v>81</v>
       </c>
@@ -23367,9 +23343,7 @@
         <v>435</v>
       </c>
       <c r="K401" s="2"/>
-      <c r="L401" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L401" s="7"/>
       <c r="M401" s="2" t="s">
         <v>81</v>
       </c>
@@ -23423,9 +23397,7 @@
         <v>435</v>
       </c>
       <c r="K402" s="2"/>
-      <c r="L402" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L402" s="7"/>
       <c r="M402" s="2" t="s">
         <v>81</v>
       </c>
@@ -23479,9 +23451,7 @@
         <v>435</v>
       </c>
       <c r="K403" s="2"/>
-      <c r="L403" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L403" s="7"/>
       <c r="M403" s="2" t="s">
         <v>81</v>
       </c>
@@ -23593,9 +23563,7 @@
         <v>486</v>
       </c>
       <c r="K405" s="2"/>
-      <c r="L405" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L405" s="7"/>
       <c r="M405" s="2" t="s">
         <v>81</v>
       </c>
@@ -23649,9 +23617,7 @@
         <v>486</v>
       </c>
       <c r="K406" s="2"/>
-      <c r="L406" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L406" s="7"/>
       <c r="M406" s="2" t="s">
         <v>81</v>
       </c>
@@ -23705,9 +23671,7 @@
         <v>487</v>
       </c>
       <c r="K407" s="2"/>
-      <c r="L407" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L407" s="7"/>
       <c r="M407" s="2" t="s">
         <v>81</v>
       </c>
@@ -23763,9 +23727,7 @@
       <c r="K408" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="L408" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L408" s="7"/>
       <c r="M408" s="2" t="s">
         <v>81</v>
       </c>
@@ -24087,9 +24049,7 @@
         <v>435</v>
       </c>
       <c r="K414" s="2"/>
-      <c r="L414" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L414" s="7"/>
       <c r="M414" s="2" t="s">
         <v>83</v>
       </c>
@@ -24143,9 +24103,7 @@
         <v>435</v>
       </c>
       <c r="K415" s="2"/>
-      <c r="L415" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L415" s="7"/>
       <c r="M415" s="2" t="s">
         <v>83</v>
       </c>
@@ -24303,9 +24261,7 @@
         <v>435</v>
       </c>
       <c r="K418" s="2"/>
-      <c r="L418" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L418" s="7"/>
       <c r="M418" s="2" t="s">
         <v>84</v>
       </c>
@@ -24521,9 +24477,7 @@
         <v>435</v>
       </c>
       <c r="K422" s="2"/>
-      <c r="L422" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="2" t="s">
         <v>85</v>
       </c>
@@ -24550,44 +24504,42 @@
       <c r="V422" s="2"/>
     </row>
     <row r="423" spans="1:22">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C423" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2" t="s">
+      <c r="C423" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K423" s="2"/>
-      <c r="L423" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M423" s="2" t="s">
+      <c r="K423" s="5"/>
+      <c r="L423" s="7"/>
+      <c r="M423" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N423" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
-      <c r="Q423" s="2"/>
-      <c r="R423" s="2"/>
-      <c r="S423" s="2"/>
-      <c r="T423" s="2"/>
-      <c r="U423" s="2" t="s">
+      <c r="N423" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O423" s="5"/>
+      <c r="P423" s="5"/>
+      <c r="Q423" s="5"/>
+      <c r="R423" s="5"/>
+      <c r="S423" s="5"/>
+      <c r="T423" s="5"/>
+      <c r="U423" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V423" s="2"/>
+      <c r="V423" s="5"/>
     </row>
     <row r="424" spans="1:22">
       <c r="A424" s="2" t="s">
@@ -24825,9 +24777,7 @@
         <v>435</v>
       </c>
       <c r="K428" s="2"/>
-      <c r="L428" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L428" s="7"/>
       <c r="M428" s="2" t="s">
         <v>86</v>
       </c>
@@ -24881,9 +24831,7 @@
         <v>435</v>
       </c>
       <c r="K429" s="2"/>
-      <c r="L429" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L429" s="7"/>
       <c r="M429" s="2" t="s">
         <v>86</v>
       </c>
@@ -24910,46 +24858,44 @@
       <c r="V429" s="2"/>
     </row>
     <row r="430" spans="1:22">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="2"/>
-      <c r="J430" s="2" t="s">
+      <c r="C430" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K430" s="2" t="s">
+      <c r="K430" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="L430" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M430" s="2" t="s">
+      <c r="L430" s="7"/>
+      <c r="M430" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N430" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
-      <c r="Q430" s="2"/>
-      <c r="R430" s="2"/>
-      <c r="S430" s="2"/>
-      <c r="T430" s="2"/>
-      <c r="U430" s="2" t="s">
+      <c r="N430" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O430" s="5"/>
+      <c r="P430" s="5"/>
+      <c r="Q430" s="5"/>
+      <c r="R430" s="5"/>
+      <c r="S430" s="5"/>
+      <c r="T430" s="5"/>
+      <c r="U430" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V430" s="2" t="s">
+      <c r="V430" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -25189,9 +25135,7 @@
         <v>435</v>
       </c>
       <c r="K435" s="2"/>
-      <c r="L435" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L435" s="7"/>
       <c r="M435" s="2" t="s">
         <v>87</v>
       </c>
@@ -25218,46 +25162,44 @@
       <c r="V435" s="2"/>
     </row>
     <row r="436" spans="1:22">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C436" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2" t="s">
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K436" s="2" t="s">
+      <c r="K436" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L436" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M436" s="2" t="s">
+      <c r="L436" s="7"/>
+      <c r="M436" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N436" s="2" t="s">
+      <c r="N436" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="2"/>
-      <c r="U436" s="2" t="s">
+      <c r="O436" s="5"/>
+      <c r="P436" s="5"/>
+      <c r="Q436" s="5"/>
+      <c r="R436" s="5"/>
+      <c r="S436" s="5"/>
+      <c r="T436" s="5"/>
+      <c r="U436" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="V436" s="2" t="s">
+      <c r="V436" s="5" t="s">
         <v>548</v>
       </c>
     </row>
@@ -25503,9 +25445,7 @@
       <c r="K441" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="L441" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L441" s="7"/>
       <c r="M441" s="2" t="s">
         <v>89</v>
       </c>
@@ -26298,46 +26238,44 @@
       <c r="V455" s="2"/>
     </row>
     <row r="456" spans="1:22">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2" t="s">
+      <c r="C456" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="K456" s="2" t="s">
+      <c r="K456" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L456" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M456" s="2" t="s">
+      <c r="L456" s="7"/>
+      <c r="M456" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N456" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
-      <c r="Q456" s="2"/>
-      <c r="R456" s="2"/>
-      <c r="S456" s="2"/>
-      <c r="T456" s="2"/>
-      <c r="U456" s="2" t="s">
+      <c r="N456" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="V456" s="2" t="s">
+      <c r="V456" s="5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -26577,9 +26515,7 @@
         <v>435</v>
       </c>
       <c r="K461" s="2"/>
-      <c r="L461" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L461" s="7"/>
       <c r="M461" s="2" t="s">
         <v>60</v>
       </c>
@@ -26633,9 +26569,7 @@
         <v>435</v>
       </c>
       <c r="K462" s="2"/>
-      <c r="L462" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L462" s="7"/>
       <c r="M462" s="2" t="s">
         <v>60</v>
       </c>
@@ -26689,9 +26623,7 @@
         <v>435</v>
       </c>
       <c r="K463" s="2"/>
-      <c r="L463" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L463" s="7"/>
       <c r="M463" s="2" t="s">
         <v>60</v>
       </c>
@@ -26718,46 +26650,44 @@
       <c r="V463" s="2"/>
     </row>
     <row r="464" spans="1:22">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
-      <c r="I464" s="2"/>
-      <c r="J464" s="2" t="s">
+      <c r="C464" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K464" s="2" t="s">
+      <c r="K464" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L464" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M464" s="2" t="s">
+      <c r="L464" s="7"/>
+      <c r="M464" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N464" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O464" s="2"/>
-      <c r="P464" s="2"/>
-      <c r="Q464" s="2"/>
-      <c r="R464" s="2"/>
-      <c r="S464" s="2"/>
-      <c r="T464" s="2"/>
-      <c r="U464" s="2" t="s">
+      <c r="N464" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O464" s="5"/>
+      <c r="P464" s="5"/>
+      <c r="Q464" s="5"/>
+      <c r="R464" s="5"/>
+      <c r="S464" s="5"/>
+      <c r="T464" s="5"/>
+      <c r="U464" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="V464" s="2" t="s">
+      <c r="V464" s="5" t="s">
         <v>555</v>
       </c>
     </row>
@@ -26920,46 +26850,44 @@
       <c r="V467" s="2"/>
     </row>
     <row r="468" spans="1:22">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="2"/>
-      <c r="I468" s="2"/>
-      <c r="J468" s="2" t="s">
+      <c r="C468" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
+      <c r="I468" s="5"/>
+      <c r="J468" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K468" s="2" t="s">
+      <c r="K468" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="L468" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M468" s="2" t="s">
+      <c r="L468" s="7"/>
+      <c r="M468" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N468" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O468" s="2"/>
-      <c r="P468" s="2"/>
-      <c r="Q468" s="2"/>
-      <c r="R468" s="2"/>
-      <c r="S468" s="2"/>
-      <c r="T468" s="2"/>
-      <c r="U468" s="2" t="s">
+      <c r="N468" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O468" s="5"/>
+      <c r="P468" s="5"/>
+      <c r="Q468" s="5"/>
+      <c r="R468" s="5"/>
+      <c r="S468" s="5"/>
+      <c r="T468" s="5"/>
+      <c r="U468" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V468" s="2" t="s">
+      <c r="V468" s="5" t="s">
         <v>535</v>
       </c>
     </row>
@@ -27122,46 +27050,44 @@
       <c r="V471" s="2"/>
     </row>
     <row r="472" spans="1:22">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2" t="s">
+      <c r="C472" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K472" s="2" t="s">
+      <c r="K472" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="L472" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M472" s="2" t="s">
+      <c r="L472" s="7"/>
+      <c r="M472" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N472" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O472" s="2"/>
-      <c r="P472" s="2"/>
-      <c r="Q472" s="2"/>
-      <c r="R472" s="2"/>
-      <c r="S472" s="2"/>
-      <c r="T472" s="2"/>
-      <c r="U472" s="2" t="s">
+      <c r="N472" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O472" s="5"/>
+      <c r="P472" s="5"/>
+      <c r="Q472" s="5"/>
+      <c r="R472" s="5"/>
+      <c r="S472" s="5"/>
+      <c r="T472" s="5"/>
+      <c r="U472" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="V472" s="2" t="s">
+      <c r="V472" s="5" t="s">
         <v>556</v>
       </c>
     </row>
@@ -27482,46 +27408,44 @@
       <c r="V478" s="2"/>
     </row>
     <row r="479" spans="1:22">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="2" t="s">
+      <c r="C479" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="K479" s="2" t="s">
+      <c r="K479" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="L479" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M479" s="2" t="s">
+      <c r="L479" s="7"/>
+      <c r="M479" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N479" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O479" s="2"/>
-      <c r="P479" s="2"/>
-      <c r="Q479" s="2"/>
-      <c r="R479" s="2"/>
-      <c r="S479" s="2"/>
-      <c r="T479" s="2"/>
-      <c r="U479" s="2" t="s">
+      <c r="N479" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O479" s="5"/>
+      <c r="P479" s="5"/>
+      <c r="Q479" s="5"/>
+      <c r="R479" s="5"/>
+      <c r="S479" s="5"/>
+      <c r="T479" s="5"/>
+      <c r="U479" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="V479" s="2" t="s">
+      <c r="V479" s="5" t="s">
         <v>557</v>
       </c>
     </row>
@@ -27684,46 +27608,44 @@
       <c r="V482" s="2"/>
     </row>
     <row r="483" spans="1:22">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C483" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
-      <c r="I483" s="2"/>
-      <c r="J483" s="2" t="s">
+      <c r="C483" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+      <c r="G483" s="5"/>
+      <c r="H483" s="5"/>
+      <c r="I483" s="5"/>
+      <c r="J483" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="K483" s="2" t="s">
+      <c r="K483" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="L483" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M483" s="2" t="s">
+      <c r="L483" s="7"/>
+      <c r="M483" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N483" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O483" s="2"/>
-      <c r="P483" s="2"/>
-      <c r="Q483" s="2"/>
-      <c r="R483" s="2"/>
-      <c r="S483" s="2"/>
-      <c r="T483" s="2"/>
-      <c r="U483" s="2" t="s">
+      <c r="N483" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O483" s="5"/>
+      <c r="P483" s="5"/>
+      <c r="Q483" s="5"/>
+      <c r="R483" s="5"/>
+      <c r="S483" s="5"/>
+      <c r="T483" s="5"/>
+      <c r="U483" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="V483" s="2" t="s">
+      <c r="V483" s="5" t="s">
         <v>558</v>
       </c>
     </row>
@@ -27917,9 +27839,7 @@
         <v>435</v>
       </c>
       <c r="K487" s="2"/>
-      <c r="L487" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L487" s="7"/>
       <c r="M487" s="2" t="s">
         <v>96</v>
       </c>
@@ -27946,46 +27866,44 @@
       <c r="V487" s="2"/>
     </row>
     <row r="488" spans="1:22">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C488" s="2" t="s">
+      <c r="C488" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="2" t="s">
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="K488" s="2" t="s">
+      <c r="K488" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="L488" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M488" s="2" t="s">
+      <c r="L488" s="7"/>
+      <c r="M488" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N488" s="2" t="s">
+      <c r="N488" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O488" s="2"/>
-      <c r="P488" s="2"/>
-      <c r="Q488" s="2"/>
-      <c r="R488" s="2"/>
-      <c r="S488" s="2"/>
-      <c r="T488" s="2"/>
-      <c r="U488" s="2" t="s">
+      <c r="O488" s="5"/>
+      <c r="P488" s="5"/>
+      <c r="Q488" s="5"/>
+      <c r="R488" s="5"/>
+      <c r="S488" s="5"/>
+      <c r="T488" s="5"/>
+      <c r="U488" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="V488" s="2" t="s">
+      <c r="V488" s="5" t="s">
         <v>559</v>
       </c>
     </row>
@@ -28252,44 +28170,42 @@
       <c r="V493" s="2"/>
     </row>
     <row r="494" spans="1:22">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C494" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="2" t="s">
+      <c r="C494" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
+      <c r="I494" s="5"/>
+      <c r="J494" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K494" s="2"/>
-      <c r="L494" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M494" s="2" t="s">
+      <c r="K494" s="5"/>
+      <c r="L494" s="7"/>
+      <c r="M494" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N494" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O494" s="2"/>
-      <c r="P494" s="2"/>
-      <c r="Q494" s="2"/>
-      <c r="R494" s="2"/>
-      <c r="S494" s="2"/>
-      <c r="T494" s="2"/>
-      <c r="U494" s="2" t="s">
+      <c r="N494" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O494" s="5"/>
+      <c r="P494" s="5"/>
+      <c r="Q494" s="5"/>
+      <c r="R494" s="5"/>
+      <c r="S494" s="5"/>
+      <c r="T494" s="5"/>
+      <c r="U494" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V494" s="2"/>
+      <c r="V494" s="5"/>
     </row>
     <row r="495" spans="1:22">
       <c r="A495" s="2" t="s">
@@ -28689,9 +28605,7 @@
         <v>435</v>
       </c>
       <c r="K502" s="2"/>
-      <c r="L502" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L502" s="7"/>
       <c r="M502" s="2" t="s">
         <v>99</v>
       </c>
@@ -28745,9 +28659,7 @@
         <v>435</v>
       </c>
       <c r="K503" s="2"/>
-      <c r="L503" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L503" s="7"/>
       <c r="M503" s="2" t="s">
         <v>99</v>
       </c>
@@ -28801,9 +28713,7 @@
         <v>435</v>
       </c>
       <c r="K504" s="2"/>
-      <c r="L504" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L504" s="7"/>
       <c r="M504" s="2" t="s">
         <v>99</v>
       </c>
@@ -28888,46 +28798,44 @@
       </c>
     </row>
     <row r="506" spans="1:22">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C506" s="2" t="s">
+      <c r="C506" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D506" s="2"/>
-      <c r="E506" s="2"/>
-      <c r="F506" s="2"/>
-      <c r="G506" s="2"/>
-      <c r="H506" s="2"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="2" t="s">
+      <c r="D506" s="5"/>
+      <c r="E506" s="5"/>
+      <c r="F506" s="5"/>
+      <c r="G506" s="5"/>
+      <c r="H506" s="5"/>
+      <c r="I506" s="5"/>
+      <c r="J506" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K506" s="2" t="s">
+      <c r="K506" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="L506" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M506" s="2" t="s">
+      <c r="L506" s="7"/>
+      <c r="M506" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N506" s="2" t="s">
+      <c r="N506" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O506" s="2"/>
-      <c r="P506" s="2"/>
-      <c r="Q506" s="2"/>
-      <c r="R506" s="2"/>
-      <c r="S506" s="2"/>
-      <c r="T506" s="2"/>
-      <c r="U506" s="2" t="s">
+      <c r="O506" s="5"/>
+      <c r="P506" s="5"/>
+      <c r="Q506" s="5"/>
+      <c r="R506" s="5"/>
+      <c r="S506" s="5"/>
+      <c r="T506" s="5"/>
+      <c r="U506" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="V506" s="2" t="s">
+      <c r="V506" s="5" t="s">
         <v>562</v>
       </c>
     </row>
@@ -29194,44 +29102,42 @@
       <c r="V511" s="2"/>
     </row>
     <row r="512" spans="1:22">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C512" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2" t="s">
+      <c r="C512" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+      <c r="G512" s="5"/>
+      <c r="H512" s="5"/>
+      <c r="I512" s="5"/>
+      <c r="J512" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K512" s="2"/>
-      <c r="L512" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M512" s="2" t="s">
+      <c r="K512" s="5"/>
+      <c r="L512" s="7"/>
+      <c r="M512" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N512" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
-      <c r="T512" s="2"/>
-      <c r="U512" s="2" t="s">
+      <c r="N512" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O512" s="5"/>
+      <c r="P512" s="5"/>
+      <c r="Q512" s="5"/>
+      <c r="R512" s="5"/>
+      <c r="S512" s="5"/>
+      <c r="T512" s="5"/>
+      <c r="U512" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V512" s="2"/>
+      <c r="V512" s="5"/>
     </row>
     <row r="513" spans="1:22">
       <c r="A513" s="2" t="s">
@@ -29627,9 +29533,7 @@
         <v>435</v>
       </c>
       <c r="K520" s="2"/>
-      <c r="L520" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L520" s="7"/>
       <c r="M520" s="2" t="s">
         <v>102</v>
       </c>
@@ -29683,9 +29587,7 @@
         <v>435</v>
       </c>
       <c r="K521" s="2"/>
-      <c r="L521" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L521" s="7"/>
       <c r="M521" s="2" t="s">
         <v>102</v>
       </c>
@@ -29739,9 +29641,7 @@
         <v>435</v>
       </c>
       <c r="K522" s="2"/>
-      <c r="L522" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L522" s="7"/>
       <c r="M522" s="2" t="s">
         <v>102</v>
       </c>
@@ -29795,9 +29695,7 @@
         <v>435</v>
       </c>
       <c r="K523" s="2"/>
-      <c r="L523" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L523" s="7"/>
       <c r="M523" s="2" t="s">
         <v>102</v>
       </c>
@@ -29851,9 +29749,7 @@
         <v>435</v>
       </c>
       <c r="K524" s="2"/>
-      <c r="L524" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L524" s="7"/>
       <c r="M524" s="2" t="s">
         <v>102</v>
       </c>
@@ -29880,46 +29776,44 @@
       <c r="V524" s="2"/>
     </row>
     <row r="525" spans="1:22">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C525" s="2" t="s">
+      <c r="C525" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D525" s="2"/>
-      <c r="E525" s="2"/>
-      <c r="F525" s="2"/>
-      <c r="G525" s="2"/>
-      <c r="H525" s="2"/>
-      <c r="I525" s="2"/>
-      <c r="J525" s="2" t="s">
+      <c r="D525" s="5"/>
+      <c r="E525" s="5"/>
+      <c r="F525" s="5"/>
+      <c r="G525" s="5"/>
+      <c r="H525" s="5"/>
+      <c r="I525" s="5"/>
+      <c r="J525" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="K525" s="2" t="s">
+      <c r="K525" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="L525" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M525" s="2" t="s">
+      <c r="L525" s="7"/>
+      <c r="M525" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N525" s="2" t="s">
+      <c r="N525" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O525" s="2"/>
-      <c r="P525" s="2"/>
-      <c r="Q525" s="2"/>
-      <c r="R525" s="2"/>
-      <c r="S525" s="2"/>
-      <c r="T525" s="2"/>
-      <c r="U525" s="2" t="s">
+      <c r="O525" s="5"/>
+      <c r="P525" s="5"/>
+      <c r="Q525" s="5"/>
+      <c r="R525" s="5"/>
+      <c r="S525" s="5"/>
+      <c r="T525" s="5"/>
+      <c r="U525" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="V525" s="2" t="s">
+      <c r="V525" s="5" t="s">
         <v>559</v>
       </c>
     </row>
@@ -30186,44 +30080,42 @@
       <c r="V530" s="2"/>
     </row>
     <row r="531" spans="1:22">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C531" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D531" s="2"/>
-      <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
-      <c r="H531" s="2"/>
-      <c r="I531" s="2"/>
-      <c r="J531" s="2" t="s">
+      <c r="C531" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+      <c r="F531" s="5"/>
+      <c r="G531" s="5"/>
+      <c r="H531" s="5"/>
+      <c r="I531" s="5"/>
+      <c r="J531" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K531" s="2"/>
-      <c r="L531" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M531" s="2" t="s">
+      <c r="K531" s="5"/>
+      <c r="L531" s="7"/>
+      <c r="M531" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N531" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O531" s="2"/>
-      <c r="P531" s="2"/>
-      <c r="Q531" s="2"/>
-      <c r="R531" s="2"/>
-      <c r="S531" s="2"/>
-      <c r="T531" s="2"/>
-      <c r="U531" s="2" t="s">
+      <c r="N531" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O531" s="5"/>
+      <c r="P531" s="5"/>
+      <c r="Q531" s="5"/>
+      <c r="R531" s="5"/>
+      <c r="S531" s="5"/>
+      <c r="T531" s="5"/>
+      <c r="U531" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V531" s="2"/>
+      <c r="V531" s="5"/>
     </row>
     <row r="532" spans="1:22">
       <c r="A532" s="2" t="s">
@@ -30619,9 +30511,7 @@
         <v>435</v>
       </c>
       <c r="K539" s="2"/>
-      <c r="L539" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L539" s="7"/>
       <c r="M539" s="2" t="s">
         <v>105</v>
       </c>
@@ -30648,46 +30538,44 @@
       <c r="V539" s="2"/>
     </row>
     <row r="540" spans="1:22">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="C540" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D540" s="2"/>
-      <c r="E540" s="2"/>
-      <c r="F540" s="2"/>
-      <c r="G540" s="2"/>
-      <c r="H540" s="2"/>
-      <c r="I540" s="2"/>
-      <c r="J540" s="2" t="s">
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+      <c r="F540" s="5"/>
+      <c r="G540" s="5"/>
+      <c r="H540" s="5"/>
+      <c r="I540" s="5"/>
+      <c r="J540" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="K540" s="2" t="s">
+      <c r="K540" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="L540" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M540" s="2" t="s">
+      <c r="L540" s="7"/>
+      <c r="M540" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N540" s="2" t="s">
+      <c r="N540" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O540" s="2"/>
-      <c r="P540" s="2"/>
-      <c r="Q540" s="2"/>
-      <c r="R540" s="2"/>
-      <c r="S540" s="2"/>
-      <c r="T540" s="2"/>
-      <c r="U540" s="2" t="s">
+      <c r="O540" s="5"/>
+      <c r="P540" s="5"/>
+      <c r="Q540" s="5"/>
+      <c r="R540" s="5"/>
+      <c r="S540" s="5"/>
+      <c r="T540" s="5"/>
+      <c r="U540" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="V540" s="2" t="s">
+      <c r="V540" s="5" t="s">
         <v>563</v>
       </c>
     </row>
@@ -30815,9 +30703,7 @@
         <v>434</v>
       </c>
       <c r="K543" s="2"/>
-      <c r="L543" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="L543" s="7"/>
       <c r="M543" s="2" t="s">
         <v>106</v>
       </c>
@@ -31102,46 +30988,44 @@
       </c>
     </row>
     <row r="549" spans="1:22">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C549" s="2" t="s">
+      <c r="C549" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D549" s="2"/>
-      <c r="E549" s="2"/>
-      <c r="F549" s="2"/>
-      <c r="G549" s="2"/>
-      <c r="H549" s="2"/>
-      <c r="I549" s="2"/>
-      <c r="J549" s="2" t="s">
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+      <c r="G549" s="5"/>
+      <c r="H549" s="5"/>
+      <c r="I549" s="5"/>
+      <c r="J549" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K549" s="2" t="s">
+      <c r="K549" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="L549" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M549" s="2" t="s">
+      <c r="L549" s="7"/>
+      <c r="M549" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N549" s="2" t="s">
+      <c r="N549" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O549" s="2"/>
-      <c r="P549" s="2"/>
-      <c r="Q549" s="2"/>
-      <c r="R549" s="2"/>
-      <c r="S549" s="2"/>
-      <c r="T549" s="2"/>
-      <c r="U549" s="2" t="s">
+      <c r="O549" s="5"/>
+      <c r="P549" s="5"/>
+      <c r="Q549" s="5"/>
+      <c r="R549" s="5"/>
+      <c r="S549" s="5"/>
+      <c r="T549" s="5"/>
+      <c r="U549" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="V549" s="2" t="s">
+      <c r="V549" s="5" t="s">
         <v>565</v>
       </c>
     </row>
@@ -31570,44 +31454,42 @@
       </c>
     </row>
     <row r="558" spans="1:22">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="5" t="s">
         <v>1257</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C558" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D558" s="2"/>
-      <c r="E558" s="2"/>
-      <c r="F558" s="2"/>
-      <c r="G558" s="2"/>
-      <c r="H558" s="2"/>
-      <c r="I558" s="2"/>
-      <c r="J558" s="2" t="s">
+      <c r="C558" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+      <c r="G558" s="5"/>
+      <c r="H558" s="5"/>
+      <c r="I558" s="5"/>
+      <c r="J558" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K558" s="2"/>
-      <c r="L558" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="M558" s="2" t="s">
+      <c r="K558" s="5"/>
+      <c r="L558" s="7"/>
+      <c r="M558" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N558" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O558" s="2"/>
-      <c r="P558" s="2"/>
-      <c r="Q558" s="2"/>
-      <c r="R558" s="2"/>
-      <c r="S558" s="2"/>
-      <c r="T558" s="2"/>
-      <c r="U558" s="2" t="s">
+      <c r="N558" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O558" s="5"/>
+      <c r="P558" s="5"/>
+      <c r="Q558" s="5"/>
+      <c r="R558" s="5"/>
+      <c r="S558" s="5"/>
+      <c r="T558" s="5"/>
+      <c r="U558" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="V558" s="2"/>
+      <c r="V558" s="5"/>
     </row>
     <row r="559" spans="1:22">
       <c r="A559" s="2" t="s">
